--- a/DataSource/Endoso_Modificacion_De_Coberturas.xlsx
+++ b/DataSource/Endoso_Modificacion_De_Coberturas.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A18BBB6-72DC-4E82-95C7-4C9238471915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6C8DF8-7AE0-472A-B203-73815468BC77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,7 +86,7 @@
     <t>04440026761</t>
   </si>
   <si>
-    <t>04104008319</t>
+    <t>04104012998</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
